--- a/demomilk/uploads/EmployeeMaster.xlsx
+++ b/demomilk/uploads/EmployeeMaster.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Employee</t>
   </si>
@@ -33,10 +33,7 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>Manoj</t>
-  </si>
-  <si>
-    <t>Solapur</t>
+    <t>Shweta</t>
   </si>
 </sst>
 </file>
@@ -378,7 +375,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,9 +403,6 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>2</v>
